--- a/Assets/Resources/Data/Monster.xlsx
+++ b/Assets/Resources/Data/Monster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Metal-Max\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YDC\Documents\UnityProjects\Metal-Max\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,6 +626,10 @@
   </si>
   <si>
     <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,7 +963,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,34 +982,34 @@
         <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
         <v>112</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">

--- a/Assets/Resources/Data/Monster.xlsx
+++ b/Assets/Resources/Data/Monster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YDC\Documents\UnityProjects\Metal-Max\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Metal-Max\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>85zixingpao</t>
   </si>
@@ -630,6 +630,14 @@
   </si>
   <si>
     <t>nameString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -977,7 +985,7 @@
     <col min="11" max="11" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -1011,8 +1019,14 @@
       <c r="K1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -1046,8 +1060,14 @@
       <c r="K2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1073,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1081,8 +1101,14 @@
       <c r="K3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1116,8 +1142,14 @@
       <c r="K4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1151,8 +1183,14 @@
       <c r="K5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1186,8 +1224,14 @@
       <c r="K6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1221,8 +1265,14 @@
       <c r="K7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1248,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1256,8 +1306,14 @@
       <c r="K8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1291,8 +1347,14 @@
       <c r="K9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1326,8 +1388,14 @@
       <c r="K10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1361,8 +1429,14 @@
       <c r="K11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1396,8 +1470,14 @@
       <c r="K12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1431,8 +1511,14 @@
       <c r="K13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1466,8 +1552,14 @@
       <c r="K14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1493,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1501,8 +1593,14 @@
       <c r="K15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1528,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1536,8 +1634,14 @@
       <c r="K16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1563,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1571,8 +1675,14 @@
       <c r="K17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1606,8 +1716,14 @@
       <c r="K18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1641,8 +1757,14 @@
       <c r="K19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1668,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1676,8 +1798,14 @@
       <c r="K20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>23</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1711,8 +1839,14 @@
       <c r="K21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1872,7 @@
         <v>21</v>
       </c>
       <c r="I22">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -1746,8 +1880,14 @@
       <c r="K22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -1781,8 +1921,14 @@
       <c r="K23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1808,7 +1954,7 @@
         <v>23</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1816,8 +1962,14 @@
       <c r="K24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1843,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -1851,8 +2003,14 @@
       <c r="K25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1878,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -1886,8 +2044,14 @@
       <c r="K26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1913,7 +2077,7 @@
         <v>26</v>
       </c>
       <c r="I27">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J27">
         <v>10</v>
@@ -1921,8 +2085,14 @@
       <c r="K27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -1956,8 +2126,14 @@
       <c r="K28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2159,7 @@
         <v>28</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -1991,8 +2167,14 @@
       <c r="K29" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="I30">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -2026,8 +2208,14 @@
       <c r="K30" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2053,7 +2241,7 @@
         <v>30</v>
       </c>
       <c r="I31">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -2061,8 +2249,14 @@
       <c r="K31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2282,7 @@
         <v>31</v>
       </c>
       <c r="I32">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -2096,8 +2290,14 @@
       <c r="K32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J33">
         <v>10</v>
@@ -2131,8 +2331,14 @@
       <c r="K33" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2158,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J34">
         <v>10</v>
@@ -2166,8 +2372,14 @@
       <c r="K34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2193,7 +2405,7 @@
         <v>34</v>
       </c>
       <c r="I35">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J35">
         <v>10</v>
@@ -2201,8 +2413,14 @@
       <c r="K35" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>38</v>
+      </c>
+      <c r="M35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2236,8 +2454,14 @@
       <c r="K36" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>39</v>
+      </c>
+      <c r="M36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2487,7 @@
         <v>36</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -2271,8 +2495,14 @@
       <c r="K37" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2528,7 @@
         <v>37</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -2306,8 +2536,14 @@
       <c r="K38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2569,7 @@
         <v>38</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -2341,8 +2577,14 @@
       <c r="K39" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2610,7 @@
         <v>39</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="J40">
         <v>10</v>
@@ -2376,8 +2618,14 @@
       <c r="K40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>43</v>
+      </c>
+      <c r="M40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2651,7 @@
         <v>130</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J41">
         <v>35</v>
@@ -2411,8 +2659,14 @@
       <c r="K41" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>44</v>
+      </c>
+      <c r="M41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2692,7 @@
         <v>150</v>
       </c>
       <c r="I42">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J42">
         <v>40</v>
@@ -2446,8 +2700,14 @@
       <c r="K42" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>45</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2733,7 @@
         <v>98</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -2481,8 +2741,14 @@
       <c r="K43" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>46</v>
+      </c>
+      <c r="M43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2774,7 @@
         <v>74</v>
       </c>
       <c r="I44">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J44">
         <v>70</v>
@@ -2516,8 +2782,14 @@
       <c r="K44" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>47</v>
+      </c>
+      <c r="M44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2815,7 @@
         <v>118</v>
       </c>
       <c r="I45">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J45">
         <v>25</v>
@@ -2551,8 +2823,14 @@
       <c r="K45" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>48</v>
+      </c>
+      <c r="M45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2856,7 @@
         <v>75</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J46">
         <v>20</v>
@@ -2586,8 +2864,14 @@
       <c r="K46" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>49</v>
+      </c>
+      <c r="M46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="I47">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J47">
         <v>35</v>
@@ -2621,8 +2905,14 @@
       <c r="K47" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2648,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="I48">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J48">
         <v>39</v>
@@ -2656,8 +2946,14 @@
       <c r="K48" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>51</v>
+      </c>
+      <c r="M48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2979,7 @@
         <v>132</v>
       </c>
       <c r="I49">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J49">
         <v>45</v>
@@ -2691,8 +2987,14 @@
       <c r="K49" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>52</v>
+      </c>
+      <c r="M49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +3020,7 @@
         <v>200</v>
       </c>
       <c r="I50">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J50">
         <v>60</v>
@@ -2726,8 +3028,14 @@
       <c r="K50" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>53</v>
+      </c>
+      <c r="M50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -2753,7 +3061,7 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J51">
         <v>30</v>
@@ -2761,8 +3069,14 @@
       <c r="K51" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51">
+        <v>54</v>
+      </c>
+      <c r="M51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +3102,7 @@
         <v>45</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="J52">
         <v>35</v>
@@ -2796,8 +3110,14 @@
       <c r="K52" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52">
+        <v>55</v>
+      </c>
+      <c r="M52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2823,16 +3143,22 @@
         <v>80</v>
       </c>
       <c r="I53">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J53">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K53" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53">
+        <v>56</v>
+      </c>
+      <c r="M53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2858,16 +3184,22 @@
         <v>60</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K54" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2893,16 +3225,22 @@
         <v>255</v>
       </c>
       <c r="I55">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J55">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55">
+        <v>150</v>
+      </c>
+      <c r="M55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -2931,13 +3269,19 @@
         <v>90</v>
       </c>
       <c r="J56">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K56" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56">
+        <v>200</v>
+      </c>
+      <c r="M56">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2963,13 +3307,19 @@
         <v>255</v>
       </c>
       <c r="I57">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J57">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
         <v>168</v>
+      </c>
+      <c r="L57">
+        <v>250</v>
+      </c>
+      <c r="M57">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -2978,5 +3328,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Monster.xlsx
+++ b/Assets/Resources/Data/Monster.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
   <si>
     <t>85zixingpao</t>
   </si>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>80</v>

--- a/Assets/Resources/Data/Monster.xlsx
+++ b/Assets/Resources/Data/Monster.xlsx
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>80</v>
